--- a/WJI Landing Page/womenundercustodydecember2024.xlsx
+++ b/WJI Landing Page/womenundercustodydecember2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolson1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaward/Documents/GitHub/WJI-GitHUB/WJI Landing Page/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983C3432-C4B6-4BD9-8FB5-26A2D6065FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B4868-CBA4-9B4F-963D-E42A71C3B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{FAB9D2C0-3599-4BE0-8D7A-9824A17608B2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{FAB9D2C0-3599-4BE0-8D7A-9824A17608B2}"/>
   </bookViews>
   <sheets>
     <sheet name="undercustody2024" sheetId="1" r:id="rId1"/>
@@ -67,18 +67,6 @@
     <t>Female Exits onto MSR</t>
   </si>
   <si>
-    <t>Class X</t>
-  </si>
-  <si>
-    <t>Murder</t>
-  </si>
-  <si>
-    <t>Class 1-2</t>
-  </si>
-  <si>
-    <t>Class 3-4</t>
-  </si>
-  <si>
     <t>Exit Year</t>
   </si>
   <si>
@@ -86,6 +74,18 @@
   </si>
   <si>
     <t>Class 3-4 Returned within 18 months</t>
+  </si>
+  <si>
+    <t>Murder Exits</t>
+  </si>
+  <si>
+    <t>Class X Exits</t>
+  </si>
+  <si>
+    <t>Class 1-2 Exits</t>
+  </si>
+  <si>
+    <t>Class 3-4 Exits</t>
   </si>
 </sst>
 </file>
@@ -467,12 +467,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>20777</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -529,12 +529,12 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -542,19 +542,19 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -574,7 +574,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -594,7 +594,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -714,7 +714,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -734,7 +734,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -774,7 +774,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -794,7 +794,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -814,7 +814,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -834,7 +834,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -867,20 +867,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -913,7 +913,7 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -924,7 +924,7 @@
         <v>0.26800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2023</v>
       </c>

--- a/WJI Landing Page/womenundercustodydecember2024.xlsx
+++ b/WJI Landing Page/womenundercustodydecember2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaward/Documents/GitHub/WJI-GitHUB/WJI Landing Page/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dolson1\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04B4868-CBA4-9B4F-963D-E42A71C3B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65657110-A98F-4DC5-8D2C-21ACFEE9158C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{FAB9D2C0-3599-4BE0-8D7A-9824A17608B2}"/>
+    <workbookView xWindow="1550" yWindow="20" windowWidth="18900" windowHeight="10920" xr2:uid="{FAB9D2C0-3599-4BE0-8D7A-9824A17608B2}"/>
   </bookViews>
   <sheets>
     <sheet name="undercustody2024" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,18 @@
     <t>Female Exits onto MSR</t>
   </si>
   <si>
+    <t>Class X</t>
+  </si>
+  <si>
+    <t>Murder</t>
+  </si>
+  <si>
+    <t>Class 1-2</t>
+  </si>
+  <si>
+    <t>Class 3-4</t>
+  </si>
+  <si>
     <t>Exit Year</t>
   </si>
   <si>
@@ -74,18 +86,6 @@
   </si>
   <si>
     <t>Class 3-4 Returned within 18 months</t>
-  </si>
-  <si>
-    <t>Murder Exits</t>
-  </si>
-  <si>
-    <t>Class X Exits</t>
-  </si>
-  <si>
-    <t>Class 1-2 Exits</t>
-  </si>
-  <si>
-    <t>Class 3-4 Exits</t>
   </si>
 </sst>
 </file>
@@ -463,16 +463,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70DB704-27C4-44A0-852F-8A370F29035F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>20777</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -498,7 +498,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -506,7 +506,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -528,13 +528,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E350FA-95B4-4472-A0FC-FE87BDD3D6C5}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -542,59 +542,59 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>1053</v>
+        <v>2196</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>184</v>
       </c>
       <c r="E2">
-        <v>312</v>
+        <v>696</v>
       </c>
       <c r="F2">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>2191</v>
+        <v>2340</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="E3">
-        <v>609</v>
+        <v>761</v>
       </c>
       <c r="F3">
-        <v>1476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -614,7 +614,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -674,7 +674,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -714,7 +714,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -734,7 +734,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -774,7 +774,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -794,7 +794,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -814,7 +814,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -834,7 +834,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -864,86 +864,86 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" s="1">
-        <v>0.255</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>0.29199999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3" s="1">
-        <v>0.184</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>0.23400000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2020</v>
       </c>
       <c r="B4" s="1">
-        <v>0.13900000000000001</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2021</v>
       </c>
       <c r="B5" s="1">
-        <v>0.21099999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2022</v>
       </c>
       <c r="B6" s="1">
-        <v>0.192</v>
+        <v>0.17</v>
       </c>
       <c r="C6" s="1">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2023</v>
       </c>
       <c r="B7" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.152</v>
       </c>
       <c r="C7" s="1">
-        <v>0.161</v>
+        <v>0.124</v>
       </c>
     </row>
   </sheetData>
